--- a/data_jf.xlsx
+++ b/data_jf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Pro-Psak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB21BD9-E708-4071-813C-12BA8EE70CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B72160-0CFA-4B5B-92AB-3088F98B3F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Fincat</t>
   </si>
   <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
     <t>INVST - INST LOAN</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>Provisi JF</t>
+  </si>
+  <si>
+    <t>JF-BPR BAHANA EKONOMI SENTOSA</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -379,6 +379,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -802,7 +803,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,7 +811,7 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" style="11" customWidth="1"/>
     <col min="6" max="6" width="15.26953125" style="11" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
@@ -836,10 +837,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -860,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -868,28 +869,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="J2" s="6">
         <v>35</v>
@@ -898,10 +899,10 @@
         <v>23</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="8">
-        <v>0</v>
+        <v>1256000</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -909,28 +910,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="J3" s="6">
         <v>34</v>
@@ -939,7 +940,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" s="8">
         <v>1172378</v>
@@ -950,28 +951,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="J4" s="6">
         <v>21</v>
@@ -980,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="8">
         <v>1448106</v>
@@ -991,28 +992,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="J5" s="6">
         <v>27</v>
@@ -1021,7 +1022,7 @@
         <v>24</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" s="8">
         <v>1084042</v>
@@ -1032,28 +1033,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="J6" s="6">
         <v>15</v>
@@ -1062,7 +1063,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" s="8">
         <v>203508</v>
@@ -1073,28 +1074,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="J7" s="6">
         <v>23</v>
@@ -1103,7 +1104,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="8">
         <v>544241</v>
@@ -1114,28 +1115,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="J8" s="6">
         <v>19</v>
@@ -1144,7 +1145,7 @@
         <v>23</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" s="8">
         <v>68162</v>
@@ -1155,28 +1156,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="J9" s="6">
         <v>16</v>
@@ -1185,10 +1186,10 @@
         <v>26</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" s="8">
-        <v>0</v>
+        <v>663000</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1196,28 +1197,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="6">
         <v>17</v>
@@ -1226,10 +1227,10 @@
         <v>24</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="8">
-        <v>0</v>
+        <v>784000</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1237,28 +1238,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="J11" s="6">
         <v>12</v>
@@ -1267,7 +1268,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="8">
         <v>49694</v>
@@ -1278,28 +1279,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="6">
         <v>51</v>
@@ -1308,7 +1309,7 @@
         <v>24</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" s="8">
         <v>2510524</v>
@@ -1319,28 +1320,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="J13" s="6">
         <v>50</v>
@@ -1349,7 +1350,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M13" s="8">
         <v>11379096</v>
@@ -1360,28 +1361,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="J14" s="6">
         <v>8</v>
@@ -1390,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M14" s="8">
         <v>49739</v>
@@ -1401,28 +1402,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="J15" s="6">
         <v>35</v>
@@ -1431,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="8">
         <v>2990995</v>
@@ -1442,28 +1443,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="J16" s="6">
         <v>37</v>
@@ -1472,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M16" s="8">
         <v>3478406</v>
